--- a/easy-trade/easy-tms/src/main/webapp/excel/CartOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/CartOrderExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2745" windowWidth="27450" windowHeight="10650"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>商品订单记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支付方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +105,6 @@
   </si>
   <si>
     <t>支付时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货人信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -583,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,16 +588,14 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -614,10 +604,8 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -642,19 +630,13 @@
       <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="G4" s="3"/>
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
